--- a/Model_Configurations.xlsx
+++ b/Model_Configurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NSS\Sink_Like_A_Stone-Variance_In_RNNs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4114BF40-75DE-45E9-8C24-2EDEF371866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFE037C-0481-4721-8EA5-B35176F56113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Model Set #</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Early Stopping</t>
+  </si>
+  <si>
+    <t>LTSM/RNN</t>
+  </si>
+  <si>
+    <t>Presentation - Discuss process, not just results</t>
   </si>
 </sst>
 </file>
@@ -103,12 +109,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -123,11 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,8 +426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -425,7 +441,7 @@
     <col min="9" max="15" width="11.90625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,412 +479,469 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>500</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>500</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1">
-        <v>250</v>
-      </c>
-      <c r="E2" s="1">
-        <v>25</v>
-      </c>
-      <c r="F2" s="1">
-        <v>64</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="D2" s="2">
+        <v>250</v>
+      </c>
+      <c r="E2" s="2">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
-        <v>64</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
+      <c r="H2" s="2">
+        <v>64</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>500</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2">
+        <v>500</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1">
-        <v>250</v>
-      </c>
-      <c r="E3" s="1">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>64</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="D3" s="2">
+        <v>250</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2">
         <v>2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>128</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>500</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="2">
+        <v>500</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1">
-        <v>250</v>
-      </c>
-      <c r="E4" s="1">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>64</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="D4" s="2">
+        <v>250</v>
+      </c>
+      <c r="E4" s="2">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
-        <v>64</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="2">
+        <v>64</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>500</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2">
+        <v>500</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="1">
-        <v>250</v>
-      </c>
-      <c r="E5" s="1">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>64</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="D5" s="2">
+        <v>250</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2">
         <v>4</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>128</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="I5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>500</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="2">
+        <v>500</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
-        <v>250</v>
-      </c>
-      <c r="E6" s="1">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1">
-        <v>64</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
-      <c r="H6" s="1">
-        <v>64</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="D6" s="2">
+        <v>250</v>
+      </c>
+      <c r="E6" s="2">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>64</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6</v>
+      </c>
+      <c r="H6" s="2">
+        <v>64</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>500</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="1">
-        <v>250</v>
-      </c>
-      <c r="E7" s="1">
-        <v>25</v>
-      </c>
-      <c r="F7" s="1">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1">
-        <v>6</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="D7" s="2">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>64</v>
+      </c>
+      <c r="G7" s="2">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
         <v>128</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
+      <c r="I7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>500</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="2">
+        <v>500</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1">
-        <v>250</v>
-      </c>
-      <c r="E9" s="1">
-        <v>25</v>
-      </c>
-      <c r="F9" s="1">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="D9" s="2">
+        <v>250</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>64</v>
+      </c>
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="1">
-        <v>64</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="2">
+        <v>64</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>500</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="2">
+        <v>500</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1">
-        <v>250</v>
-      </c>
-      <c r="E10" s="1">
-        <v>25</v>
-      </c>
-      <c r="F10" s="1">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D10" s="2">
+        <v>250</v>
+      </c>
+      <c r="E10" s="2">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2">
         <v>2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>128</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>500</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>500</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1">
-        <v>250</v>
-      </c>
-      <c r="E11" s="1">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="D11" s="2">
+        <v>250</v>
+      </c>
+      <c r="E11" s="2">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="1">
-        <v>64</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="2">
+        <v>64</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>500</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2">
+        <v>500</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1">
-        <v>250</v>
-      </c>
-      <c r="E12" s="1">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1">
-        <v>64</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="D12" s="2">
+        <v>250</v>
+      </c>
+      <c r="E12" s="2">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2">
+        <v>64</v>
+      </c>
+      <c r="G12" s="2">
         <v>4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>128</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
-        <v>500</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="2">
+        <v>500</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1">
-        <v>250</v>
-      </c>
-      <c r="E13" s="1">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6</v>
-      </c>
-      <c r="H13" s="1">
-        <v>64</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="D13" s="2">
+        <v>250</v>
+      </c>
+      <c r="E13" s="2">
+        <v>25</v>
+      </c>
+      <c r="F13" s="2">
+        <v>64</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2">
+        <v>64</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>500</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2">
+        <v>500</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="1">
-        <v>250</v>
-      </c>
-      <c r="E14" s="1">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <v>64</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="D14" s="2">
+        <v>250</v>
+      </c>
+      <c r="E14" s="2">
+        <v>25</v>
+      </c>
+      <c r="F14" s="2">
+        <v>64</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2">
         <v>128</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>13</v>
       </c>
